--- a/src/test/java/com/seleniumHybrid/testData/DatadrivenTestData.xlsx
+++ b/src/test/java/com/seleniumHybrid/testData/DatadrivenTestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBE6BB-F865-4939-8341-90C46EFEC8D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -96,9 +97,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Framework_001</t>
-  </si>
-  <si>
     <t>Framework_002</t>
   </si>
   <si>
@@ -114,18 +112,20 @@
     <t>22, LimeSquare, City Road</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +226,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -273,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,9 +309,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -516,25 +553,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="1" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,7 +620,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -592,13 +629,13 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -622,12 +659,12 @@
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -639,19 +676,19 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -668,18 +705,18 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId10"/>
-    <hyperlink ref="M2" r:id="rId11"/>
-    <hyperlink ref="C3" r:id="rId12"/>
-    <hyperlink ref="M3" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -687,7 +724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -699,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/test/java/com/seleniumHybrid/testData/DatadrivenTestData.xlsx
+++ b/src/test/java/com/seleniumHybrid/testData/DatadrivenTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBE6BB-F865-4939-8341-90C46EFEC8D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586B7B0-CD6B-43F6-AFD4-D2B83E95246C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>Framework_001</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +623,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -629,22 +632,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -657,14 +660,11 @@
       </c>
       <c r="M2" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -673,22 +673,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -700,26 +700,72 @@
         <v>22</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{DADD9EF1-372A-462F-8FCC-AA74BD9ED026}"/>
+    <hyperlink ref="M2" r:id="rId6" xr:uid="{D80E6945-1437-4FE5-BC00-D6ED15F112A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/src/test/java/com/seleniumHybrid/testData/DatadrivenTestData.xlsx
+++ b/src/test/java/com/seleniumHybrid/testData/DatadrivenTestData.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2586B7B0-CD6B-43F6-AFD4-D2B83E95246C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{15357DF4-AE0B-46F3-B6EB-91994CF2DFC5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20760" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I16"/>
 </workbook>
 </file>
 
@@ -560,7 +561,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
